--- a/tests/mesora.xlsx
+++ b/tests/mesora.xlsx
@@ -146,7 +146,7 @@
       <rPr>
         <sz val="12"/>
       </rPr>
-      <t xml:space="preserve">ד1</t>
+      <t xml:space="preserve">ד</t>
     </r>
   </si>
   <si>
@@ -172,7 +172,7 @@
       <rPr>
         <sz val="12"/>
       </rPr>
-      <t xml:space="preserve">ד2</t>
+      <t xml:space="preserve">ה</t>
     </r>
   </si>
   <si>
@@ -198,21 +198,377 @@
       <rPr>
         <sz val="12"/>
       </rPr>
+      <t xml:space="preserve">ו</t>
+    </r>
+  </si>
+  <si>
+    <t>ל תשרי</t>
+  </si>
+  <si>
+    <t>6/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ז</t>
+    </r>
+  </si>
+  <si>
+    <t>א חשון</t>
+  </si>
+  <si>
+    <t>7/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ח</t>
+    </r>
+  </si>
+  <si>
+    <t>ב חשון</t>
+  </si>
+  <si>
+    <t>8/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ט</t>
+    </r>
+  </si>
+  <si>
+    <t>ג חשון</t>
+  </si>
+  <si>
+    <t>9/10</t>
+  </si>
+  <si>
+    <t>נח</t>
+  </si>
+  <si>
+    <t>ד חשון</t>
+  </si>
+  <si>
+    <t>10/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">י</t>
+    </r>
+  </si>
+  <si>
+    <t>ה חשון</t>
+  </si>
+  <si>
+    <t>11/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יא</t>
+    </r>
+  </si>
+  <si>
+    <t>ו חשון</t>
+  </si>
+  <si>
+    <t>12/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יב</t>
+    </r>
+  </si>
+  <si>
+    <t>ז חשון</t>
+  </si>
+  <si>
+    <t>13/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יג</t>
+    </r>
+  </si>
+  <si>
+    <t>ח חשון</t>
+  </si>
+  <si>
+    <t>14/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יד</t>
+    </r>
+  </si>
+  <si>
+    <t>ט חשון</t>
+  </si>
+  <si>
+    <t>15/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">א</t>
+    </r>
+  </si>
+  <si>
+    <t>י חשון</t>
+  </si>
+  <si>
+    <t>16/10</t>
+  </si>
+  <si>
+    <t>לך-לך</t>
+  </si>
+  <si>
+    <t>יא חשון</t>
+  </si>
+  <si>
+    <t>17/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ב</t>
+    </r>
+  </si>
+  <si>
+    <t>יב חשון</t>
+  </si>
+  <si>
+    <t>18/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ג</t>
+    </r>
+  </si>
+  <si>
+    <t>יג חשון</t>
+  </si>
+  <si>
+    <t>19/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ד</t>
+    </r>
+  </si>
+  <si>
+    <t>יד חשון</t>
+  </si>
+  <si>
+    <t>20/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
       <t xml:space="preserve">ה</t>
     </r>
   </si>
   <si>
-    <t>ל תשרי</t>
-  </si>
-  <si>
-    <t>6/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>טו חשון</t>
+  </si>
+  <si>
+    <t>21/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -228,17 +584,17 @@
     </r>
   </si>
   <si>
-    <t>א חשון</t>
-  </si>
-  <si>
-    <t>7/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>טז חשון</t>
+  </si>
+  <si>
+    <t>22/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -254,17 +610,26 @@
     </r>
   </si>
   <si>
-    <t>ב חשון</t>
-  </si>
-  <si>
-    <t>8/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>יז חשון</t>
+  </si>
+  <si>
+    <t>23/10</t>
+  </si>
+  <si>
+    <t>וירא</t>
+  </si>
+  <si>
+    <t>יח חשון</t>
+  </si>
+  <si>
+    <t>24/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -280,26 +645,17 @@
     </r>
   </si>
   <si>
-    <t>ג חשון</t>
-  </si>
-  <si>
-    <t>9/10</t>
-  </si>
-  <si>
-    <t>נח</t>
-  </si>
-  <si>
-    <t>ד חשון</t>
-  </si>
-  <si>
-    <t>10/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>יט חשון</t>
+  </si>
+  <si>
+    <t>25/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -315,17 +671,17 @@
     </r>
   </si>
   <si>
-    <t>ה חשון</t>
-  </si>
-  <si>
-    <t>11/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>כ חשון</t>
+  </si>
+  <si>
+    <t>26/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -341,17 +697,17 @@
     </r>
   </si>
   <si>
-    <t>ו חשון</t>
-  </si>
-  <si>
-    <t>12/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>כא חשון</t>
+  </si>
+  <si>
+    <t>27/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -367,17 +723,17 @@
     </r>
   </si>
   <si>
-    <t>ז חשון</t>
-  </si>
-  <si>
-    <t>13/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>כב חשון</t>
+  </si>
+  <si>
+    <t>28/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -393,17 +749,17 @@
     </r>
   </si>
   <si>
-    <t>ח חשון</t>
-  </si>
-  <si>
-    <t>14/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>כג חשון</t>
+  </si>
+  <si>
+    <t>29/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -419,17 +775,26 @@
     </r>
   </si>
   <si>
-    <t>ט חשון</t>
-  </si>
-  <si>
-    <t>15/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>כד חשון</t>
+  </si>
+  <si>
+    <t>30/10</t>
+  </si>
+  <si>
+    <t>חיי שרה</t>
+  </si>
+  <si>
+    <t>כה חשון</t>
+  </si>
+  <si>
+    <t>31/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -445,26 +810,17 @@
     </r>
   </si>
   <si>
-    <t>י חשון</t>
-  </si>
-  <si>
-    <t>16/10</t>
-  </si>
-  <si>
-    <t>לך-לך</t>
-  </si>
-  <si>
-    <t>יא חשון</t>
-  </si>
-  <si>
-    <t>17/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>כו חשון</t>
+  </si>
+  <si>
+    <t>1/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -480,17 +836,17 @@
     </r>
   </si>
   <si>
-    <t>יב חשון</t>
-  </si>
-  <si>
-    <t>18/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>כז חשון</t>
+  </si>
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -506,17 +862,17 @@
     </r>
   </si>
   <si>
-    <t>יג חשון</t>
-  </si>
-  <si>
-    <t>19/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>כח חשון</t>
+  </si>
+  <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -532,17 +888,17 @@
     </r>
   </si>
   <si>
-    <t>יד חשון</t>
-  </si>
-  <si>
-    <t>20/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>כט חשון</t>
+  </si>
+  <si>
+    <t>4/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -558,17 +914,17 @@
     </r>
   </si>
   <si>
-    <t>טו חשון</t>
-  </si>
-  <si>
-    <t>21/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>א כסלו</t>
+  </si>
+  <si>
+    <t>5/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -584,17 +940,26 @@
     </r>
   </si>
   <si>
-    <t>טז חשון</t>
-  </si>
-  <si>
-    <t>22/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>ב כסלו</t>
+  </si>
+  <si>
+    <t>6/11</t>
+  </si>
+  <si>
+    <t>תולדות</t>
+  </si>
+  <si>
+    <t>ג כסלו</t>
+  </si>
+  <si>
+    <t>7/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -610,26 +975,17 @@
     </r>
   </si>
   <si>
-    <t>יז חשון</t>
-  </si>
-  <si>
-    <t>23/10</t>
-  </si>
-  <si>
-    <t>וירא</t>
-  </si>
-  <si>
-    <t>יח חשון</t>
-  </si>
-  <si>
-    <t>24/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>ד כסלו</t>
+  </si>
+  <si>
+    <t>8/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -645,17 +1001,17 @@
     </r>
   </si>
   <si>
-    <t>יט חשון</t>
-  </si>
-  <si>
-    <t>25/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>ה כסלו</t>
+  </si>
+  <si>
+    <t>9/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -671,17 +1027,17 @@
     </r>
   </si>
   <si>
-    <t>כ חשון</t>
-  </si>
-  <si>
-    <t>26/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>ו כסלו</t>
+  </si>
+  <si>
+    <t>10/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -697,17 +1053,17 @@
     </r>
   </si>
   <si>
-    <t>כא חשון</t>
-  </si>
-  <si>
-    <t>27/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>ז כסלו</t>
+  </si>
+  <si>
+    <t>11/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -723,17 +1079,17 @@
     </r>
   </si>
   <si>
-    <t>כב חשון</t>
-  </si>
-  <si>
-    <t>28/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>ח כסלו</t>
+  </si>
+  <si>
+    <t>12/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -749,17 +1105,26 @@
     </r>
   </si>
   <si>
-    <t>כג חשון</t>
-  </si>
-  <si>
-    <t>29/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>ט כסלו</t>
+  </si>
+  <si>
+    <t>13/11</t>
+  </si>
+  <si>
+    <t>ויצא</t>
+  </si>
+  <si>
+    <t>י כסלו</t>
+  </si>
+  <si>
+    <t>14/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -775,26 +1140,17 @@
     </r>
   </si>
   <si>
-    <t>כד חשון</t>
-  </si>
-  <si>
-    <t>30/10</t>
-  </si>
-  <si>
-    <t>חיי שרה</t>
-  </si>
-  <si>
-    <t>כה חשון</t>
-  </si>
-  <si>
-    <t>31/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>יא כסלו</t>
+  </si>
+  <si>
+    <t>15/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -810,17 +1166,17 @@
     </r>
   </si>
   <si>
-    <t>כו חשון</t>
-  </si>
-  <si>
-    <t>1/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>יב כסלו</t>
+  </si>
+  <si>
+    <t>16/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -836,10 +1192,10 @@
     </r>
   </si>
   <si>
-    <t>כז חשון</t>
-  </si>
-  <si>
-    <t>2/11</t>
+    <t>יג כסלו</t>
+  </si>
+  <si>
+    <t>17/11</t>
   </si>
   <si>
     <r>
@@ -858,21 +1214,580 @@
       <rPr>
         <sz val="12"/>
       </rPr>
+      <t xml:space="preserve">טו</t>
+    </r>
+  </si>
+  <si>
+    <t>יד כסלו</t>
+  </si>
+  <si>
+    <t>18/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">טז</t>
+    </r>
+  </si>
+  <si>
+    <t>טו כסלו</t>
+  </si>
+  <si>
+    <t>19/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יז</t>
+    </r>
+  </si>
+  <si>
+    <t>טז כסלו</t>
+  </si>
+  <si>
+    <t>20/11</t>
+  </si>
+  <si>
+    <t>וישלח</t>
+  </si>
+  <si>
+    <t>יז כסלו</t>
+  </si>
+  <si>
+    <t>21/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יח</t>
+    </r>
+  </si>
+  <si>
+    <t>יח כסלו</t>
+  </si>
+  <si>
+    <t>22/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יט</t>
+    </r>
+  </si>
+  <si>
+    <t>יט כסלו</t>
+  </si>
+  <si>
+    <t>23/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כ</t>
+    </r>
+  </si>
+  <si>
+    <t>כ כסלו</t>
+  </si>
+  <si>
+    <t>24/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כא</t>
+    </r>
+  </si>
+  <si>
+    <t>כא כסלו</t>
+  </si>
+  <si>
+    <t>25/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כב</t>
+    </r>
+  </si>
+  <si>
+    <t>כב כסלו</t>
+  </si>
+  <si>
+    <t>26/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כג</t>
+    </r>
+  </si>
+  <si>
+    <t>כג כסלו</t>
+  </si>
+  <si>
+    <t>27/11</t>
+  </si>
+  <si>
+    <t>וישב</t>
+  </si>
+  <si>
+    <t>כד כסלו</t>
+  </si>
+  <si>
+    <t>28/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כד</t>
+    </r>
+  </si>
+  <si>
+    <t>כה כסלו</t>
+  </si>
+  <si>
+    <t>29/11</t>
+  </si>
+  <si>
+    <t>חנוכה</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כה</t>
+    </r>
+  </si>
+  <si>
+    <t>כו כסלו</t>
+  </si>
+  <si>
+    <t>30/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כו</t>
+    </r>
+  </si>
+  <si>
+    <t>כז כסלו</t>
+  </si>
+  <si>
+    <t>1/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כז</t>
+    </r>
+  </si>
+  <si>
+    <t>כח כסלו</t>
+  </si>
+  <si>
+    <t>2/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כח</t>
+    </r>
+  </si>
+  <si>
+    <t>כט כסלו</t>
+  </si>
+  <si>
+    <t>3/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כט</t>
+    </r>
+  </si>
+  <si>
+    <t>ל כסלו</t>
+  </si>
+  <si>
+    <t>4/12</t>
+  </si>
+  <si>
+    <t>מקץ</t>
+  </si>
+  <si>
+    <t>א טבת</t>
+  </si>
+  <si>
+    <t>5/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ל</t>
+    </r>
+  </si>
+  <si>
+    <t>ב טבת</t>
+  </si>
+  <si>
+    <t>6/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">לא</t>
+    </r>
+  </si>
+  <si>
+    <t>ג טבת</t>
+  </si>
+  <si>
+    <t>7/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">לב</t>
+    </r>
+  </si>
+  <si>
+    <t>ד טבת</t>
+  </si>
+  <si>
+    <t>8/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">לג</t>
+    </r>
+  </si>
+  <si>
+    <t>ה טבת</t>
+  </si>
+  <si>
+    <t>9/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">לד</t>
+    </r>
+  </si>
+  <si>
+    <t>ו טבת</t>
+  </si>
+  <si>
+    <t>10/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
       <t xml:space="preserve">א</t>
     </r>
   </si>
   <si>
-    <t>כח חשון</t>
-  </si>
-  <si>
-    <t>3/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>ז טבת</t>
+  </si>
+  <si>
+    <t>11/12</t>
+  </si>
+  <si>
+    <t>ויגש</t>
+  </si>
+  <si>
+    <t>ח טבת</t>
+  </si>
+  <si>
+    <t>12/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -888,17 +1803,17 @@
     </r>
   </si>
   <si>
-    <t>כט חשון</t>
-  </si>
-  <si>
-    <t>4/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>ט טבת</t>
+  </si>
+  <si>
+    <t>13/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -914,17 +1829,20 @@
     </r>
   </si>
   <si>
-    <t>א כסלו</t>
-  </si>
-  <si>
-    <t>5/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>י טבת</t>
+  </si>
+  <si>
+    <t>14/12</t>
+  </si>
+  <si>
+    <t>צום י טבת</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -940,26 +1858,17 @@
     </r>
   </si>
   <si>
-    <t>ב כסלו</t>
-  </si>
-  <si>
-    <t>6/11</t>
-  </si>
-  <si>
-    <t>תולדות</t>
-  </si>
-  <si>
-    <t>ג כסלו</t>
-  </si>
-  <si>
-    <t>7/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>יא טבת</t>
+  </si>
+  <si>
+    <t>15/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -975,17 +1884,17 @@
     </r>
   </si>
   <si>
-    <t>ד כסלו</t>
-  </si>
-  <si>
-    <t>8/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>יב טבת</t>
+  </si>
+  <si>
+    <t>16/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1001,17 +1910,17 @@
     </r>
   </si>
   <si>
-    <t>ה כסלו</t>
-  </si>
-  <si>
-    <t>9/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>יג טבת</t>
+  </si>
+  <si>
+    <t>17/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1027,17 +1936,26 @@
     </r>
   </si>
   <si>
-    <t>ו כסלו</t>
-  </si>
-  <si>
-    <t>10/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>יד טבת</t>
+  </si>
+  <si>
+    <t>18/12</t>
+  </si>
+  <si>
+    <t>ויחי</t>
+  </si>
+  <si>
+    <t>טו טבת</t>
+  </si>
+  <si>
+    <t>19/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1053,17 +1971,17 @@
     </r>
   </si>
   <si>
-    <t>ז כסלו</t>
-  </si>
-  <si>
-    <t>11/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>טז טבת</t>
+  </si>
+  <si>
+    <t>20/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1079,17 +1997,17 @@
     </r>
   </si>
   <si>
-    <t>ח כסלו</t>
-  </si>
-  <si>
-    <t>12/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>יז טבת</t>
+  </si>
+  <si>
+    <t>21/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1105,26 +2023,17 @@
     </r>
   </si>
   <si>
-    <t>ט כסלו</t>
-  </si>
-  <si>
-    <t>13/11</t>
-  </si>
-  <si>
-    <t>ויצא</t>
-  </si>
-  <si>
-    <t>י כסלו</t>
-  </si>
-  <si>
-    <t>14/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>יח טבת</t>
+  </si>
+  <si>
+    <t>22/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1140,17 +2049,17 @@
     </r>
   </si>
   <si>
-    <t>יא כסלו</t>
-  </si>
-  <si>
-    <t>15/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>יט טבת</t>
+  </si>
+  <si>
+    <t>23/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1166,17 +2075,17 @@
     </r>
   </si>
   <si>
-    <t>יב כסלו</t>
-  </si>
-  <si>
-    <t>16/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>כ טבת</t>
+  </si>
+  <si>
+    <t>24/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1192,17 +2101,26 @@
     </r>
   </si>
   <si>
-    <t>יג כסלו</t>
-  </si>
-  <si>
-    <t>17/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>כא טבת</t>
+  </si>
+  <si>
+    <t>25/12</t>
+  </si>
+  <si>
+    <t>שמות</t>
+  </si>
+  <si>
+    <t>כב טבת</t>
+  </si>
+  <si>
+    <t>26/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1218,17 +2136,17 @@
     </r>
   </si>
   <si>
-    <t>יד כסלו</t>
-  </si>
-  <si>
-    <t>18/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>כג טבת</t>
+  </si>
+  <si>
+    <t>27/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1244,17 +2162,17 @@
     </r>
   </si>
   <si>
-    <t>טו כסלו</t>
-  </si>
-  <si>
-    <t>19/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>כד טבת</t>
+  </si>
+  <si>
+    <t>28/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1270,26 +2188,17 @@
     </r>
   </si>
   <si>
-    <t>טז כסלו</t>
-  </si>
-  <si>
-    <t>20/11</t>
-  </si>
-  <si>
-    <t>וישלח</t>
-  </si>
-  <si>
-    <t>יז כסלו</t>
-  </si>
-  <si>
-    <t>21/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>כה טבת</t>
+  </si>
+  <si>
+    <t>29/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1305,17 +2214,17 @@
     </r>
   </si>
   <si>
-    <t>יח כסלו</t>
-  </si>
-  <si>
-    <t>22/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>כו טבת</t>
+  </si>
+  <si>
+    <t>30/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1331,17 +2240,17 @@
     </r>
   </si>
   <si>
-    <t>יט כסלו</t>
-  </si>
-  <si>
-    <t>23/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>כז טבת</t>
+  </si>
+  <si>
+    <t>31/12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1357,17 +2266,26 @@
     </r>
   </si>
   <si>
-    <t>כ כסלו</t>
-  </si>
-  <si>
-    <t>24/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>כח טבת</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>וארא</t>
+  </si>
+  <si>
+    <t>כט טבת</t>
+  </si>
+  <si>
+    <t>2/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1383,17 +2301,17 @@
     </r>
   </si>
   <si>
-    <t>כא כסלו</t>
-  </si>
-  <si>
-    <t>25/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>א שבט</t>
+  </si>
+  <si>
+    <t>3/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1409,17 +2327,17 @@
     </r>
   </si>
   <si>
-    <t>כב כסלו</t>
-  </si>
-  <si>
-    <t>26/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>ב שבט</t>
+  </si>
+  <si>
+    <t>4/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1435,26 +2353,17 @@
     </r>
   </si>
   <si>
-    <t>כג כסלו</t>
-  </si>
-  <si>
-    <t>27/11</t>
-  </si>
-  <si>
-    <t>וישב</t>
-  </si>
-  <si>
-    <t>כד כסלו</t>
-  </si>
-  <si>
-    <t>28/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>ג שבט</t>
+  </si>
+  <si>
+    <t>5/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1470,20 +2379,17 @@
     </r>
   </si>
   <si>
-    <t>כה כסלו</t>
-  </si>
-  <si>
-    <t>29/11</t>
-  </si>
-  <si>
-    <t>חנוכה</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>ד שבט</t>
+  </si>
+  <si>
+    <t>6/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1499,17 +2405,17 @@
     </r>
   </si>
   <si>
-    <t>כו כסלו</t>
-  </si>
-  <si>
-    <t>30/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>ה שבט</t>
+  </si>
+  <si>
+    <t>7/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1525,17 +2431,26 @@
     </r>
   </si>
   <si>
-    <t>כז כסלו</t>
-  </si>
-  <si>
-    <t>1/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>ו שבט</t>
+  </si>
+  <si>
+    <t>8/1</t>
+  </si>
+  <si>
+    <t>בא</t>
+  </si>
+  <si>
+    <t>ז שבט</t>
+  </si>
+  <si>
+    <t>9/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1551,17 +2466,17 @@
     </r>
   </si>
   <si>
-    <t>כח כסלו</t>
-  </si>
-  <si>
-    <t>2/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>ח שבט</t>
+  </si>
+  <si>
+    <t>10/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1577,17 +2492,17 @@
     </r>
   </si>
   <si>
-    <t>כט כסלו</t>
-  </si>
-  <si>
-    <t>3/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>ט שבט</t>
+  </si>
+  <si>
+    <t>11/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1603,26 +2518,17 @@
     </r>
   </si>
   <si>
-    <t>ל כסלו</t>
-  </si>
-  <si>
-    <t>4/12</t>
-  </si>
-  <si>
-    <t>מקץ</t>
-  </si>
-  <si>
-    <t>א טבת</t>
-  </si>
-  <si>
-    <t>5/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>י שבט</t>
+  </si>
+  <si>
+    <t>12/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1638,17 +2544,17 @@
     </r>
   </si>
   <si>
-    <t>ב טבת</t>
-  </si>
-  <si>
-    <t>6/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>יא שבט</t>
+  </si>
+  <si>
+    <t>13/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1664,17 +2570,17 @@
     </r>
   </si>
   <si>
-    <t>ג טבת</t>
-  </si>
-  <si>
-    <t>7/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>יב שבט</t>
+  </si>
+  <si>
+    <t>14/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1690,17 +2596,26 @@
     </r>
   </si>
   <si>
-    <t>ד טבת</t>
-  </si>
-  <si>
-    <t>8/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>יג שבט</t>
+  </si>
+  <si>
+    <t>15/1</t>
+  </si>
+  <si>
+    <t>בשלח</t>
+  </si>
+  <si>
+    <t>יד שבט</t>
+  </si>
+  <si>
+    <t>16/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1716,17 +2631,20 @@
     </r>
   </si>
   <si>
-    <t>ה טבת</t>
-  </si>
-  <si>
-    <t>9/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>טו שבט</t>
+  </si>
+  <si>
+    <t>17/1</t>
+  </si>
+  <si>
+    <t>רה"ש לאילנות</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1742,17 +2660,17 @@
     </r>
   </si>
   <si>
-    <t>ו טבת</t>
-  </si>
-  <si>
-    <t>10/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
+    <t>טז שבט</t>
+  </si>
+  <si>
+    <t>18/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">מלכים</t>
     </r>
     <r>
       <rPr>
@@ -1768,19 +2686,10 @@
     </r>
   </si>
   <si>
-    <t>ז טבת</t>
-  </si>
-  <si>
-    <t>11/12</t>
-  </si>
-  <si>
-    <t>ויגש</t>
-  </si>
-  <si>
-    <t>ח טבת</t>
-  </si>
-  <si>
-    <t>12/12</t>
+    <t>יז שבט</t>
+  </si>
+  <si>
+    <t>19/1</t>
   </si>
   <si>
     <r>
@@ -1799,21 +2708,47 @@
       <rPr>
         <sz val="12"/>
       </rPr>
+      <t xml:space="preserve">לה</t>
+    </r>
+  </si>
+  <si>
+    <t>יח שבט</t>
+  </si>
+  <si>
+    <t>20/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
       <t xml:space="preserve">א</t>
     </r>
   </si>
   <si>
-    <t>ט טבת</t>
-  </si>
-  <si>
-    <t>13/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>יט שבט</t>
+  </si>
+  <si>
+    <t>21/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -1829,20 +2764,26 @@
     </r>
   </si>
   <si>
-    <t>י טבת</t>
-  </si>
-  <si>
-    <t>14/12</t>
-  </si>
-  <si>
-    <t>צום י טבת</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>כ שבט</t>
+  </si>
+  <si>
+    <t>22/1</t>
+  </si>
+  <si>
+    <t>יתרו</t>
+  </si>
+  <si>
+    <t>כא שבט</t>
+  </si>
+  <si>
+    <t>23/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -1858,17 +2799,17 @@
     </r>
   </si>
   <si>
-    <t>יא טבת</t>
-  </si>
-  <si>
-    <t>15/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>כב שבט</t>
+  </si>
+  <si>
+    <t>24/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -1884,17 +2825,17 @@
     </r>
   </si>
   <si>
-    <t>יב טבת</t>
-  </si>
-  <si>
-    <t>16/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>כג שבט</t>
+  </si>
+  <si>
+    <t>25/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -1910,17 +2851,17 @@
     </r>
   </si>
   <si>
-    <t>יג טבת</t>
-  </si>
-  <si>
-    <t>17/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>כד שבט</t>
+  </si>
+  <si>
+    <t>26/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -1936,26 +2877,17 @@
     </r>
   </si>
   <si>
-    <t>יד טבת</t>
-  </si>
-  <si>
-    <t>18/12</t>
-  </si>
-  <si>
-    <t>ויחי</t>
-  </si>
-  <si>
-    <t>טו טבת</t>
-  </si>
-  <si>
-    <t>19/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>כה שבט</t>
+  </si>
+  <si>
+    <t>27/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -1971,17 +2903,17 @@
     </r>
   </si>
   <si>
-    <t>טז טבת</t>
-  </si>
-  <si>
-    <t>20/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>כו שבט</t>
+  </si>
+  <si>
+    <t>28/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -1997,17 +2929,26 @@
     </r>
   </si>
   <si>
-    <t>יז טבת</t>
-  </si>
-  <si>
-    <t>21/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>כז שבט</t>
+  </si>
+  <si>
+    <t>29/1</t>
+  </si>
+  <si>
+    <t>משפטים</t>
+  </si>
+  <si>
+    <t>כח שבט</t>
+  </si>
+  <si>
+    <t>30/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2023,17 +2964,17 @@
     </r>
   </si>
   <si>
-    <t>יח טבת</t>
-  </si>
-  <si>
-    <t>22/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>כט שבט</t>
+  </si>
+  <si>
+    <t>31/1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2049,17 +2990,17 @@
     </r>
   </si>
   <si>
-    <t>יט טבת</t>
-  </si>
-  <si>
-    <t>23/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>ל שבט</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2075,17 +3016,17 @@
     </r>
   </si>
   <si>
-    <t>כ טבת</t>
-  </si>
-  <si>
-    <t>24/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>א אדר א'</t>
+  </si>
+  <si>
+    <t>2/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2101,26 +3042,17 @@
     </r>
   </si>
   <si>
-    <t>כא טבת</t>
-  </si>
-  <si>
-    <t>25/12</t>
-  </si>
-  <si>
-    <t>שמות</t>
-  </si>
-  <si>
-    <t>כב טבת</t>
-  </si>
-  <si>
-    <t>26/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>ב אדר א'</t>
+  </si>
+  <si>
+    <t>3/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2136,17 +3068,17 @@
     </r>
   </si>
   <si>
-    <t>כג טבת</t>
-  </si>
-  <si>
-    <t>27/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>ג אדר א'</t>
+  </si>
+  <si>
+    <t>4/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2162,17 +3094,26 @@
     </r>
   </si>
   <si>
-    <t>כד טבת</t>
-  </si>
-  <si>
-    <t>28/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>ד אדר א'</t>
+  </si>
+  <si>
+    <t>5/2</t>
+  </si>
+  <si>
+    <t>תרומה</t>
+  </si>
+  <si>
+    <t>ה אדר א'</t>
+  </si>
+  <si>
+    <t>6/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2188,17 +3129,17 @@
     </r>
   </si>
   <si>
-    <t>כה טבת</t>
-  </si>
-  <si>
-    <t>29/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>ו אדר א'</t>
+  </si>
+  <si>
+    <t>7/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2214,17 +3155,17 @@
     </r>
   </si>
   <si>
-    <t>כו טבת</t>
-  </si>
-  <si>
-    <t>30/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>ז אדר א'</t>
+  </si>
+  <si>
+    <t>8/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2240,17 +3181,17 @@
     </r>
   </si>
   <si>
-    <t>כז טבת</t>
-  </si>
-  <si>
-    <t>31/12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>ח אדר א'</t>
+  </si>
+  <si>
+    <t>9/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2266,26 +3207,17 @@
     </r>
   </si>
   <si>
-    <t>כח טבת</t>
-  </si>
-  <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>וארא</t>
-  </si>
-  <si>
-    <t>כט טבת</t>
-  </si>
-  <si>
-    <t>2/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>ט אדר א'</t>
+  </si>
+  <si>
+    <t>10/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2301,17 +3233,17 @@
     </r>
   </si>
   <si>
-    <t>א שבט</t>
-  </si>
-  <si>
-    <t>3/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>י אדר א'</t>
+  </si>
+  <si>
+    <t>11/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2327,17 +3259,26 @@
     </r>
   </si>
   <si>
-    <t>ב שבט</t>
-  </si>
-  <si>
-    <t>4/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>יא אדר א'</t>
+  </si>
+  <si>
+    <t>12/2</t>
+  </si>
+  <si>
+    <t>תצוה</t>
+  </si>
+  <si>
+    <t>יב אדר א'</t>
+  </si>
+  <si>
+    <t>13/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2353,17 +3294,17 @@
     </r>
   </si>
   <si>
-    <t>ג שבט</t>
-  </si>
-  <si>
-    <t>5/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>יג אדר א'</t>
+  </si>
+  <si>
+    <t>14/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2379,17 +3320,20 @@
     </r>
   </si>
   <si>
-    <t>ד שבט</t>
-  </si>
-  <si>
-    <t>6/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>יד אדר א'</t>
+  </si>
+  <si>
+    <t>15/2</t>
+  </si>
+  <si>
+    <t>פורים קטן</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2405,17 +3349,20 @@
     </r>
   </si>
   <si>
-    <t>ה שבט</t>
-  </si>
-  <si>
-    <t>7/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>טו אדר א'</t>
+  </si>
+  <si>
+    <t>16/2</t>
+  </si>
+  <si>
+    <t>שושן פורים קטן</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2431,26 +3378,17 @@
     </r>
   </si>
   <si>
-    <t>ו שבט</t>
-  </si>
-  <si>
-    <t>8/1</t>
-  </si>
-  <si>
-    <t>בא</t>
-  </si>
-  <si>
-    <t>ז שבט</t>
-  </si>
-  <si>
-    <t>9/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>טז אדר א'</t>
+  </si>
+  <si>
+    <t>17/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2466,17 +3404,17 @@
     </r>
   </si>
   <si>
-    <t>ח שבט</t>
-  </si>
-  <si>
-    <t>10/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>יז אדר א'</t>
+  </si>
+  <si>
+    <t>18/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ישעיהו</t>
     </r>
     <r>
       <rPr>
@@ -2492,17 +3430,753 @@
     </r>
   </si>
   <si>
-    <t>ט שבט</t>
-  </si>
-  <si>
-    <t>11/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>יח אדר א'</t>
+  </si>
+  <si>
+    <t>19/2</t>
+  </si>
+  <si>
+    <t>כי תשא</t>
+  </si>
+  <si>
+    <t>יט אדר א'</t>
+  </si>
+  <si>
+    <t>20/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">א</t>
+    </r>
+  </si>
+  <si>
+    <t>כ אדר א'</t>
+  </si>
+  <si>
+    <t>21/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ב</t>
+    </r>
+  </si>
+  <si>
+    <t>כא אדר א'</t>
+  </si>
+  <si>
+    <t>22/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ג</t>
+    </r>
+  </si>
+  <si>
+    <t>כב אדר א'</t>
+  </si>
+  <si>
+    <t>23/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ד</t>
+    </r>
+  </si>
+  <si>
+    <t>כג אדר א'</t>
+  </si>
+  <si>
+    <t>24/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ה</t>
+    </r>
+  </si>
+  <si>
+    <t>כד אדר א'</t>
+  </si>
+  <si>
+    <t>25/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ו</t>
+    </r>
+  </si>
+  <si>
+    <t>כה אדר א'</t>
+  </si>
+  <si>
+    <t>26/2</t>
+  </si>
+  <si>
+    <t>ויקהל</t>
+  </si>
+  <si>
+    <t>כו אדר א'</t>
+  </si>
+  <si>
+    <t>27/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ז</t>
+    </r>
+  </si>
+  <si>
+    <t>כז אדר א'</t>
+  </si>
+  <si>
+    <t>28/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ח</t>
+    </r>
+  </si>
+  <si>
+    <t>כח אדר א'</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ט</t>
+    </r>
+  </si>
+  <si>
+    <t>כט אדר א'</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">י</t>
+    </r>
+  </si>
+  <si>
+    <t>ל אדר א'</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יא</t>
+    </r>
+  </si>
+  <si>
+    <t>א אדר ב'</t>
+  </si>
+  <si>
+    <t>4/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יב</t>
+    </r>
+  </si>
+  <si>
+    <t>ב אדר ב'</t>
+  </si>
+  <si>
+    <t>5/3</t>
+  </si>
+  <si>
+    <t>פקודי</t>
+  </si>
+  <si>
+    <t>ג אדר ב'</t>
+  </si>
+  <si>
+    <t>6/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יג</t>
+    </r>
+  </si>
+  <si>
+    <t>ד אדר ב'</t>
+  </si>
+  <si>
+    <t>7/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יד</t>
+    </r>
+  </si>
+  <si>
+    <t>ה אדר ב'</t>
+  </si>
+  <si>
+    <t>8/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">טו</t>
+    </r>
+  </si>
+  <si>
+    <t>ו אדר ב'</t>
+  </si>
+  <si>
+    <t>9/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">טז</t>
+    </r>
+  </si>
+  <si>
+    <t>ז אדר ב'</t>
+  </si>
+  <si>
+    <t>10/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יז</t>
+    </r>
+  </si>
+  <si>
+    <t>ח אדר ב'</t>
+  </si>
+  <si>
+    <t>11/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יח</t>
+    </r>
+  </si>
+  <si>
+    <t>ט אדר ב'</t>
+  </si>
+  <si>
+    <t>12/3</t>
+  </si>
+  <si>
+    <t>ויקרא</t>
+  </si>
+  <si>
+    <t>י אדר ב'</t>
+  </si>
+  <si>
+    <t>13/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יט</t>
+    </r>
+  </si>
+  <si>
+    <t>יא אדר ב'</t>
+  </si>
+  <si>
+    <t>14/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כ</t>
+    </r>
+  </si>
+  <si>
+    <t>יב אדר ב'</t>
+  </si>
+  <si>
+    <t>15/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כא</t>
+    </r>
+  </si>
+  <si>
+    <t>יג אדר ב'</t>
+  </si>
+  <si>
+    <t>16/3</t>
+  </si>
+  <si>
+    <t>תענית אסתר</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כב</t>
+    </r>
+  </si>
+  <si>
+    <t>יד אדר ב'</t>
+  </si>
+  <si>
+    <t>17/3</t>
+  </si>
+  <si>
+    <t>פורים</t>
+  </si>
+  <si>
+    <t>טו אדר ב'</t>
+  </si>
+  <si>
+    <t>18/3</t>
+  </si>
+  <si>
+    <t>שושן פורים</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כג</t>
+    </r>
+  </si>
+  <si>
+    <t>טז אדר ב'</t>
+  </si>
+  <si>
+    <t>19/3</t>
+  </si>
+  <si>
+    <t>צו</t>
+  </si>
+  <si>
+    <t>יז אדר ב'</t>
+  </si>
+  <si>
+    <t>20/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כד</t>
+    </r>
+  </si>
+  <si>
+    <t>יח אדר ב'</t>
+  </si>
+  <si>
+    <t>21/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כה</t>
+    </r>
+  </si>
+  <si>
+    <t>יט אדר ב'</t>
+  </si>
+  <si>
+    <t>22/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כו</t>
+    </r>
+  </si>
+  <si>
+    <t>כ אדר ב'</t>
+  </si>
+  <si>
+    <t>23/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
     </r>
     <r>
       <rPr>
@@ -2518,17 +4192,17 @@
     </r>
   </si>
   <si>
-    <t>י שבט</t>
-  </si>
-  <si>
-    <t>12/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>כא אדר ב'</t>
+  </si>
+  <si>
+    <t>24/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
     </r>
     <r>
       <rPr>
@@ -2544,17 +4218,17 @@
     </r>
   </si>
   <si>
-    <t>יא שבט</t>
-  </si>
-  <si>
-    <t>13/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>כב אדר ב'</t>
+  </si>
+  <si>
+    <t>25/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
     </r>
     <r>
       <rPr>
@@ -2570,17 +4244,26 @@
     </r>
   </si>
   <si>
-    <t>יב שבט</t>
-  </si>
-  <si>
-    <t>14/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>כג אדר ב'</t>
+  </si>
+  <si>
+    <t>26/3</t>
+  </si>
+  <si>
+    <t>שמיני</t>
+  </si>
+  <si>
+    <t>כד אדר ב'</t>
+  </si>
+  <si>
+    <t>27/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
     </r>
     <r>
       <rPr>
@@ -2596,26 +4279,17 @@
     </r>
   </si>
   <si>
-    <t>יג שבט</t>
-  </si>
-  <si>
-    <t>15/1</t>
-  </si>
-  <si>
-    <t>בשלח</t>
-  </si>
-  <si>
-    <t>יד שבט</t>
-  </si>
-  <si>
-    <t>16/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
+    <t>כה אדר ב'</t>
+  </si>
+  <si>
+    <t>28/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">ירמיהו</t>
     </r>
     <r>
       <rPr>
@@ -2631,124 +4305,17 @@
     </r>
   </si>
   <si>
-    <t>טו שבט</t>
-  </si>
-  <si>
-    <t>17/1</t>
-  </si>
-  <si>
-    <t>רה"ש לאילנות</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">לב</t>
-    </r>
-  </si>
-  <si>
-    <t>טז שבט</t>
-  </si>
-  <si>
-    <t>18/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">לג</t>
-    </r>
-  </si>
-  <si>
-    <t>יז שבט</t>
-  </si>
-  <si>
-    <t>19/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">לד</t>
-    </r>
-  </si>
-  <si>
-    <t>יח שבט</t>
-  </si>
-  <si>
-    <t>20/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">מלכים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">לה</t>
-    </r>
-  </si>
-  <si>
-    <t>יט שבט</t>
-  </si>
-  <si>
-    <t>21/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>כו אדר ב'</t>
+  </si>
+  <si>
+    <t>29/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -2764,26 +4331,17 @@
     </r>
   </si>
   <si>
-    <t>כ שבט</t>
-  </si>
-  <si>
-    <t>22/1</t>
-  </si>
-  <si>
-    <t>יתרו</t>
-  </si>
-  <si>
-    <t>כא שבט</t>
-  </si>
-  <si>
-    <t>23/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>כז אדר ב'</t>
+  </si>
+  <si>
+    <t>30/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -2799,17 +4357,17 @@
     </r>
   </si>
   <si>
-    <t>כב שבט</t>
-  </si>
-  <si>
-    <t>24/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>כח אדר ב'</t>
+  </si>
+  <si>
+    <t>31/3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -2825,17 +4383,17 @@
     </r>
   </si>
   <si>
-    <t>כג שבט</t>
-  </si>
-  <si>
-    <t>25/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>כט אדר ב'</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -2851,17 +4409,26 @@
     </r>
   </si>
   <si>
-    <t>כד שבט</t>
-  </si>
-  <si>
-    <t>26/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>א ניסן</t>
+  </si>
+  <si>
+    <t>2/4</t>
+  </si>
+  <si>
+    <t>תזריע</t>
+  </si>
+  <si>
+    <t>ב ניסן</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -2877,17 +4444,17 @@
     </r>
   </si>
   <si>
-    <t>כה שבט</t>
-  </si>
-  <si>
-    <t>27/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>ג ניסן</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -2903,17 +4470,17 @@
     </r>
   </si>
   <si>
-    <t>כו שבט</t>
-  </si>
-  <si>
-    <t>28/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>ד ניסן</t>
+  </si>
+  <si>
+    <t>5/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -2929,26 +4496,17 @@
     </r>
   </si>
   <si>
-    <t>כז שבט</t>
-  </si>
-  <si>
-    <t>29/1</t>
-  </si>
-  <si>
-    <t>משפטים</t>
-  </si>
-  <si>
-    <t>כח שבט</t>
-  </si>
-  <si>
-    <t>30/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>ה ניסן</t>
+  </si>
+  <si>
+    <t>6/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -2964,17 +4522,17 @@
     </r>
   </si>
   <si>
-    <t>כט שבט</t>
-  </si>
-  <si>
-    <t>31/1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>ו ניסן</t>
+  </si>
+  <si>
+    <t>7/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -2990,17 +4548,17 @@
     </r>
   </si>
   <si>
-    <t>ל שבט</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>ז ניסן</t>
+  </si>
+  <si>
+    <t>8/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3016,17 +4574,26 @@
     </r>
   </si>
   <si>
-    <t>א אדר א'</t>
-  </si>
-  <si>
-    <t>2/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>ח ניסן</t>
+  </si>
+  <si>
+    <t>9/4</t>
+  </si>
+  <si>
+    <t>מצורע</t>
+  </si>
+  <si>
+    <t>ט ניסן</t>
+  </si>
+  <si>
+    <t>10/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3042,17 +4609,17 @@
     </r>
   </si>
   <si>
-    <t>ב אדר א'</t>
-  </si>
-  <si>
-    <t>3/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>י ניסן</t>
+  </si>
+  <si>
+    <t>11/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3068,17 +4635,17 @@
     </r>
   </si>
   <si>
-    <t>ג אדר א'</t>
-  </si>
-  <si>
-    <t>4/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>יא ניסן</t>
+  </si>
+  <si>
+    <t>12/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3094,26 +4661,17 @@
     </r>
   </si>
   <si>
-    <t>ד אדר א'</t>
-  </si>
-  <si>
-    <t>5/2</t>
-  </si>
-  <si>
-    <t>תרומה</t>
-  </si>
-  <si>
-    <t>ה אדר א'</t>
-  </si>
-  <si>
-    <t>6/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>יב ניסן</t>
+  </si>
+  <si>
+    <t>13/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3129,17 +4687,17 @@
     </r>
   </si>
   <si>
-    <t>ו אדר א'</t>
-  </si>
-  <si>
-    <t>7/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>יג ניסן</t>
+  </si>
+  <si>
+    <t>14/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3155,17 +4713,17 @@
     </r>
   </si>
   <si>
-    <t>ז אדר א'</t>
-  </si>
-  <si>
-    <t>8/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>יד ניסן</t>
+  </si>
+  <si>
+    <t>15/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3181,17 +4739,29 @@
     </r>
   </si>
   <si>
-    <t>ח אדר א'</t>
-  </si>
-  <si>
-    <t>9/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>טו ניסן</t>
+  </si>
+  <si>
+    <t>16/4</t>
+  </si>
+  <si>
+    <t>פסח</t>
+  </si>
+  <si>
+    <t>טז ניסן</t>
+  </si>
+  <si>
+    <t>17/4</t>
+  </si>
+  <si>
+    <t>חוה"מ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3207,17 +4777,17 @@
     </r>
   </si>
   <si>
-    <t>ט אדר א'</t>
-  </si>
-  <si>
-    <t>10/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>יז ניסן</t>
+  </si>
+  <si>
+    <t>18/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3233,17 +4803,17 @@
     </r>
   </si>
   <si>
-    <t>י אדר א'</t>
-  </si>
-  <si>
-    <t>11/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>יח ניסן</t>
+  </si>
+  <si>
+    <t>19/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3259,26 +4829,17 @@
     </r>
   </si>
   <si>
-    <t>יא אדר א'</t>
-  </si>
-  <si>
-    <t>12/2</t>
-  </si>
-  <si>
-    <t>תצוה</t>
-  </si>
-  <si>
-    <t>יב אדר א'</t>
-  </si>
-  <si>
-    <t>13/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>יט ניסן</t>
+  </si>
+  <si>
+    <t>20/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3294,17 +4855,17 @@
     </r>
   </si>
   <si>
-    <t>יג אדר א'</t>
-  </si>
-  <si>
-    <t>14/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>כ ניסן</t>
+  </si>
+  <si>
+    <t>21/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3320,20 +4881,35 @@
     </r>
   </si>
   <si>
-    <t>יד אדר א'</t>
-  </si>
-  <si>
-    <t>15/2</t>
-  </si>
-  <si>
-    <t>פורים קטן</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>כא ניסן</t>
+  </si>
+  <si>
+    <t>22/4</t>
+  </si>
+  <si>
+    <t>שביעי של פסח</t>
+  </si>
+  <si>
+    <t>כב ניסן</t>
+  </si>
+  <si>
+    <t>23/4</t>
+  </si>
+  <si>
+    <t>אחרי מות</t>
+  </si>
+  <si>
+    <t>כג ניסן</t>
+  </si>
+  <si>
+    <t>24/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3349,20 +4925,17 @@
     </r>
   </si>
   <si>
-    <t>טו אדר א'</t>
-  </si>
-  <si>
-    <t>16/2</t>
-  </si>
-  <si>
-    <t>שושן פורים קטן</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>כד ניסן</t>
+  </si>
+  <si>
+    <t>25/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3378,17 +4951,17 @@
     </r>
   </si>
   <si>
-    <t>טז אדר א'</t>
-  </si>
-  <si>
-    <t>17/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>כה ניסן</t>
+  </si>
+  <si>
+    <t>26/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3404,17 +4977,17 @@
     </r>
   </si>
   <si>
-    <t>יז אדר א'</t>
-  </si>
-  <si>
-    <t>18/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>כו ניסן</t>
+  </si>
+  <si>
+    <t>27/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3430,26 +5003,17 @@
     </r>
   </si>
   <si>
-    <t>יח אדר א'</t>
-  </si>
-  <si>
-    <t>19/2</t>
-  </si>
-  <si>
-    <t>כי תשא</t>
-  </si>
-  <si>
-    <t>יט אדר א'</t>
-  </si>
-  <si>
-    <t>20/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ישעיהו</t>
+    <t>כז ניסן</t>
+  </si>
+  <si>
+    <t>28/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
     </r>
     <r>
       <rPr>
@@ -3465,17 +5029,104 @@
     </r>
   </si>
   <si>
-    <t>כ אדר א'</t>
-  </si>
-  <si>
-    <t>21/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>כח ניסן</t>
+  </si>
+  <si>
+    <t>29/4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כז</t>
+    </r>
+  </si>
+  <si>
+    <t>כט ניסן</t>
+  </si>
+  <si>
+    <t>30/4</t>
+  </si>
+  <si>
+    <t>קדשים</t>
+  </si>
+  <si>
+    <t>ל ניסן</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כח</t>
+    </r>
+  </si>
+  <si>
+    <t>א אייר</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">יחזקאל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">כט</t>
+    </r>
+  </si>
+  <si>
+    <t>ב אייר</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3491,17 +5142,20 @@
     </r>
   </si>
   <si>
-    <t>כא אדר א'</t>
-  </si>
-  <si>
-    <t>22/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>ג אייר</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>יום הזיכרון</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3517,17 +5171,26 @@
     </r>
   </si>
   <si>
-    <t>כב אדר א'</t>
-  </si>
-  <si>
-    <t>23/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>ד אייר</t>
+  </si>
+  <si>
+    <t>5/5</t>
+  </si>
+  <si>
+    <t>יום העצמאות</t>
+  </si>
+  <si>
+    <t>ה אייר</t>
+  </si>
+  <si>
+    <t>6/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3543,17 +5206,26 @@
     </r>
   </si>
   <si>
-    <t>כג אדר א'</t>
-  </si>
-  <si>
-    <t>24/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>ו אייר</t>
+  </si>
+  <si>
+    <t>7/5</t>
+  </si>
+  <si>
+    <t>אמור</t>
+  </si>
+  <si>
+    <t>ז אייר</t>
+  </si>
+  <si>
+    <t>8/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3569,17 +5241,17 @@
     </r>
   </si>
   <si>
-    <t>כד אדר א'</t>
-  </si>
-  <si>
-    <t>25/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>ח אייר</t>
+  </si>
+  <si>
+    <t>9/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3595,26 +5267,17 @@
     </r>
   </si>
   <si>
-    <t>כה אדר א'</t>
-  </si>
-  <si>
-    <t>26/2</t>
-  </si>
-  <si>
-    <t>ויקהל</t>
-  </si>
-  <si>
-    <t>כו אדר א'</t>
-  </si>
-  <si>
-    <t>27/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>ט אייר</t>
+  </si>
+  <si>
+    <t>10/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3630,17 +5293,17 @@
     </r>
   </si>
   <si>
-    <t>כז אדר א'</t>
-  </si>
-  <si>
-    <t>28/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>י אייר</t>
+  </si>
+  <si>
+    <t>11/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3656,17 +5319,17 @@
     </r>
   </si>
   <si>
-    <t>כח אדר א'</t>
-  </si>
-  <si>
-    <t>1/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>יא אייר</t>
+  </si>
+  <si>
+    <t>12/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3682,17 +5345,17 @@
     </r>
   </si>
   <si>
-    <t>כט אדר א'</t>
-  </si>
-  <si>
-    <t>2/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>יב אייר</t>
+  </si>
+  <si>
+    <t>13/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3708,17 +5371,26 @@
     </r>
   </si>
   <si>
-    <t>ל אדר א'</t>
-  </si>
-  <si>
-    <t>3/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>יג אייר</t>
+  </si>
+  <si>
+    <t>14/5</t>
+  </si>
+  <si>
+    <t>בהר</t>
+  </si>
+  <si>
+    <t>יד אייר</t>
+  </si>
+  <si>
+    <t>15/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3734,17 +5406,17 @@
     </r>
   </si>
   <si>
-    <t>א אדר ב'</t>
-  </si>
-  <si>
-    <t>4/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>טו אייר</t>
+  </si>
+  <si>
+    <t>16/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3760,26 +5432,17 @@
     </r>
   </si>
   <si>
-    <t>ב אדר ב'</t>
-  </si>
-  <si>
-    <t>5/3</t>
-  </si>
-  <si>
-    <t>פקודי</t>
-  </si>
-  <si>
-    <t>ג אדר ב'</t>
-  </si>
-  <si>
-    <t>6/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>טז אייר</t>
+  </si>
+  <si>
+    <t>17/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3795,17 +5458,17 @@
     </r>
   </si>
   <si>
-    <t>ד אדר ב'</t>
-  </si>
-  <si>
-    <t>7/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>יז אייר</t>
+  </si>
+  <si>
+    <t>18/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3821,17 +5484,17 @@
     </r>
   </si>
   <si>
-    <t>ה אדר ב'</t>
-  </si>
-  <si>
-    <t>8/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>יח אייר</t>
+  </si>
+  <si>
+    <t>19/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3847,17 +5510,17 @@
     </r>
   </si>
   <si>
-    <t>ו אדר ב'</t>
-  </si>
-  <si>
-    <t>9/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>יט אייר</t>
+  </si>
+  <si>
+    <t>20/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3873,17 +5536,26 @@
     </r>
   </si>
   <si>
-    <t>ז אדר ב'</t>
-  </si>
-  <si>
-    <t>10/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>כ אייר</t>
+  </si>
+  <si>
+    <t>21/5</t>
+  </si>
+  <si>
+    <t>בחקתי</t>
+  </si>
+  <si>
+    <t>כא אייר</t>
+  </si>
+  <si>
+    <t>22/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3899,17 +5571,17 @@
     </r>
   </si>
   <si>
-    <t>ח אדר ב'</t>
-  </si>
-  <si>
-    <t>11/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>כב אייר</t>
+  </si>
+  <si>
+    <t>23/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3925,26 +5597,17 @@
     </r>
   </si>
   <si>
-    <t>ט אדר ב'</t>
-  </si>
-  <si>
-    <t>12/3</t>
-  </si>
-  <si>
-    <t>ויקרא</t>
-  </si>
-  <si>
-    <t>י אדר ב'</t>
-  </si>
-  <si>
-    <t>13/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>כג אייר</t>
+  </si>
+  <si>
+    <t>24/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3960,17 +5623,17 @@
     </r>
   </si>
   <si>
-    <t>יא אדר ב'</t>
-  </si>
-  <si>
-    <t>14/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>כד אייר</t>
+  </si>
+  <si>
+    <t>25/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -3986,17 +5649,17 @@
     </r>
   </si>
   <si>
-    <t>יב אדר ב'</t>
-  </si>
-  <si>
-    <t>15/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>כה אייר</t>
+  </si>
+  <si>
+    <t>26/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -4012,20 +5675,17 @@
     </r>
   </si>
   <si>
-    <t>יג אדר ב'</t>
-  </si>
-  <si>
-    <t>16/3</t>
-  </si>
-  <si>
-    <t>תענית אסתר</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
+    <t>כו אייר</t>
+  </si>
+  <si>
+    <t>27/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
     </r>
     <r>
       <rPr>
@@ -4041,307 +5701,26 @@
     </r>
   </si>
   <si>
-    <t>יד אדר ב'</t>
-  </si>
-  <si>
-    <t>17/3</t>
-  </si>
-  <si>
-    <t>פורים</t>
-  </si>
-  <si>
-    <t>טו אדר ב'</t>
-  </si>
-  <si>
-    <t>18/3</t>
-  </si>
-  <si>
-    <t>שושן פורים</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כב</t>
-    </r>
-  </si>
-  <si>
-    <t>טז אדר ב'</t>
-  </si>
-  <si>
-    <t>19/3</t>
-  </si>
-  <si>
-    <t>צו</t>
-  </si>
-  <si>
-    <t>יז אדר ב'</t>
-  </si>
-  <si>
-    <t>20/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כג</t>
-    </r>
-  </si>
-  <si>
-    <t>יח אדר ב'</t>
-  </si>
-  <si>
-    <t>21/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כד</t>
-    </r>
-  </si>
-  <si>
-    <t>יט אדר ב'</t>
-  </si>
-  <si>
-    <t>22/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כה</t>
-    </r>
-  </si>
-  <si>
-    <t>כ אדר ב'</t>
-  </si>
-  <si>
-    <t>23/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כו</t>
-    </r>
-  </si>
-  <si>
-    <t>כא אדר ב'</t>
-  </si>
-  <si>
-    <t>24/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כז</t>
-    </r>
-  </si>
-  <si>
-    <t>כב אדר ב'</t>
-  </si>
-  <si>
-    <t>25/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כח</t>
-    </r>
-  </si>
-  <si>
-    <t>כג אדר ב'</t>
-  </si>
-  <si>
-    <t>26/3</t>
-  </si>
-  <si>
-    <t>שמיני</t>
-  </si>
-  <si>
-    <t>כד אדר ב'</t>
-  </si>
-  <si>
-    <t>27/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כט</t>
-    </r>
-  </si>
-  <si>
-    <t>כה אדר ב'</t>
-  </si>
-  <si>
-    <t>28/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ל</t>
-    </r>
-  </si>
-  <si>
-    <t>כו אדר ב'</t>
-  </si>
-  <si>
-    <t>29/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ירמיהו</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">לא</t>
-    </r>
-  </si>
-  <si>
-    <t>כז אדר ב'</t>
-  </si>
-  <si>
-    <t>30/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>כז אייר</t>
+  </si>
+  <si>
+    <t>28/5</t>
+  </si>
+  <si>
+    <t>במדבר</t>
+  </si>
+  <si>
+    <t>כח אייר</t>
+  </si>
+  <si>
+    <t>29/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4357,17 +5736,17 @@
     </r>
   </si>
   <si>
-    <t>כח אדר ב'</t>
-  </si>
-  <si>
-    <t>31/3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>כט אייר</t>
+  </si>
+  <si>
+    <t>30/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4383,17 +5762,17 @@
     </r>
   </si>
   <si>
-    <t>כט אדר ב'</t>
-  </si>
-  <si>
-    <t>1/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>א סיון</t>
+  </si>
+  <si>
+    <t>31/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4409,26 +5788,17 @@
     </r>
   </si>
   <si>
-    <t>א ניסן</t>
-  </si>
-  <si>
-    <t>2/4</t>
-  </si>
-  <si>
-    <t>תזריע</t>
-  </si>
-  <si>
-    <t>ב ניסן</t>
-  </si>
-  <si>
-    <t>3/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>ב סיון</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4444,17 +5814,17 @@
     </r>
   </si>
   <si>
-    <t>ג ניסן</t>
-  </si>
-  <si>
-    <t>4/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>ג סיון</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4470,17 +5840,17 @@
     </r>
   </si>
   <si>
-    <t>ד ניסן</t>
-  </si>
-  <si>
-    <t>5/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>ד סיון</t>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4496,17 +5866,35 @@
     </r>
   </si>
   <si>
-    <t>ה ניסן</t>
-  </si>
-  <si>
-    <t>6/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>ה סיון</t>
+  </si>
+  <si>
+    <t>4/6</t>
+  </si>
+  <si>
+    <t>נשא</t>
+  </si>
+  <si>
+    <t>ו סיון</t>
+  </si>
+  <si>
+    <t>5/6</t>
+  </si>
+  <si>
+    <t>שבועות</t>
+  </si>
+  <si>
+    <t>ז סיון</t>
+  </si>
+  <si>
+    <t>6/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4522,17 +5910,17 @@
     </r>
   </si>
   <si>
-    <t>ו ניסן</t>
-  </si>
-  <si>
-    <t>7/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>ח סיון</t>
+  </si>
+  <si>
+    <t>7/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4548,17 +5936,17 @@
     </r>
   </si>
   <si>
-    <t>ז ניסן</t>
-  </si>
-  <si>
-    <t>8/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>ט סיון</t>
+  </si>
+  <si>
+    <t>8/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4574,26 +5962,17 @@
     </r>
   </si>
   <si>
-    <t>ח ניסן</t>
-  </si>
-  <si>
-    <t>9/4</t>
-  </si>
-  <si>
-    <t>מצורע</t>
-  </si>
-  <si>
-    <t>ט ניסן</t>
-  </si>
-  <si>
-    <t>10/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>י סיון</t>
+  </si>
+  <si>
+    <t>9/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4609,17 +5988,17 @@
     </r>
   </si>
   <si>
-    <t>י ניסן</t>
-  </si>
-  <si>
-    <t>11/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>יא סיון</t>
+  </si>
+  <si>
+    <t>10/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4635,17 +6014,26 @@
     </r>
   </si>
   <si>
-    <t>יא ניסן</t>
-  </si>
-  <si>
-    <t>12/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>יב סיון</t>
+  </si>
+  <si>
+    <t>11/6</t>
+  </si>
+  <si>
+    <t>בהעלתך</t>
+  </si>
+  <si>
+    <t>יג סיון</t>
+  </si>
+  <si>
+    <t>12/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4661,17 +6049,17 @@
     </r>
   </si>
   <si>
-    <t>יב ניסן</t>
-  </si>
-  <si>
-    <t>13/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>יד סיון</t>
+  </si>
+  <si>
+    <t>13/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4687,17 +6075,17 @@
     </r>
   </si>
   <si>
-    <t>יג ניסן</t>
-  </si>
-  <si>
-    <t>14/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>טו סיון</t>
+  </si>
+  <si>
+    <t>14/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4713,17 +6101,17 @@
     </r>
   </si>
   <si>
-    <t>יד ניסן</t>
-  </si>
-  <si>
-    <t>15/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>טז סיון</t>
+  </si>
+  <si>
+    <t>15/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4739,29 +6127,17 @@
     </r>
   </si>
   <si>
-    <t>טו ניסן</t>
-  </si>
-  <si>
-    <t>16/4</t>
-  </si>
-  <si>
-    <t>פסח</t>
-  </si>
-  <si>
-    <t>טז ניסן</t>
-  </si>
-  <si>
-    <t>17/4</t>
-  </si>
-  <si>
-    <t>חוה"מ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>יז סיון</t>
+  </si>
+  <si>
+    <t>16/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4777,17 +6153,17 @@
     </r>
   </si>
   <si>
-    <t>יז ניסן</t>
-  </si>
-  <si>
-    <t>18/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>יח סיון</t>
+  </si>
+  <si>
+    <t>17/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4803,17 +6179,26 @@
     </r>
   </si>
   <si>
-    <t>יח ניסן</t>
-  </si>
-  <si>
-    <t>19/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>יט סיון</t>
+  </si>
+  <si>
+    <t>18/6</t>
+  </si>
+  <si>
+    <t>שלח לך</t>
+  </si>
+  <si>
+    <t>כ סיון</t>
+  </si>
+  <si>
+    <t>19/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4829,17 +6214,17 @@
     </r>
   </si>
   <si>
-    <t>יט ניסן</t>
-  </si>
-  <si>
-    <t>20/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
+    <t>כא סיון</t>
+  </si>
+  <si>
+    <t>20/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -4855,307 +6240,17 @@
     </r>
   </si>
   <si>
-    <t>כ ניסן</t>
-  </si>
-  <si>
-    <t>21/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כ</t>
-    </r>
-  </si>
-  <si>
-    <t>כא ניסן</t>
-  </si>
-  <si>
-    <t>22/4</t>
-  </si>
-  <si>
-    <t>שביעי של פסח</t>
-  </si>
-  <si>
-    <t>כב ניסן</t>
-  </si>
-  <si>
-    <t>23/4</t>
-  </si>
-  <si>
-    <t>אחרי מות</t>
-  </si>
-  <si>
-    <t>כג ניסן</t>
-  </si>
-  <si>
-    <t>24/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כא</t>
-    </r>
-  </si>
-  <si>
-    <t>כד ניסן</t>
-  </si>
-  <si>
-    <t>25/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כב</t>
-    </r>
-  </si>
-  <si>
-    <t>כה ניסן</t>
-  </si>
-  <si>
-    <t>26/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כג</t>
-    </r>
-  </si>
-  <si>
-    <t>כו ניסן</t>
-  </si>
-  <si>
-    <t>27/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כד</t>
-    </r>
-  </si>
-  <si>
-    <t>כז ניסן</t>
-  </si>
-  <si>
-    <t>28/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כה</t>
-    </r>
-  </si>
-  <si>
-    <t>כח ניסן</t>
-  </si>
-  <si>
-    <t>29/4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כו</t>
-    </r>
-  </si>
-  <si>
-    <t>כט ניסן</t>
-  </si>
-  <si>
-    <t>30/4</t>
-  </si>
-  <si>
-    <t>קדשים</t>
-  </si>
-  <si>
-    <t>ל ניסן</t>
-  </si>
-  <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כז</t>
-    </r>
-  </si>
-  <si>
-    <t>א אייר</t>
-  </si>
-  <si>
-    <t>2/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כח</t>
-    </r>
-  </si>
-  <si>
-    <t>ב אייר</t>
-  </si>
-  <si>
-    <t>3/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יחזקאל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כט</t>
-    </r>
-  </si>
-  <si>
-    <t>ג אייר</t>
-  </si>
-  <si>
-    <t>4/5</t>
-  </si>
-  <si>
-    <t>יום הזיכרון</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>כב סיון</t>
+  </si>
+  <si>
+    <t>21/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5171,26 +6266,17 @@
     </r>
   </si>
   <si>
-    <t>ד אייר</t>
-  </si>
-  <si>
-    <t>5/5</t>
-  </si>
-  <si>
-    <t>יום העצמאות</t>
-  </si>
-  <si>
-    <t>ה אייר</t>
-  </si>
-  <si>
-    <t>6/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>כג סיון</t>
+  </si>
+  <si>
+    <t>22/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5206,26 +6292,17 @@
     </r>
   </si>
   <si>
-    <t>ו אייר</t>
-  </si>
-  <si>
-    <t>7/5</t>
-  </si>
-  <si>
-    <t>אמור</t>
-  </si>
-  <si>
-    <t>ז אייר</t>
-  </si>
-  <si>
-    <t>8/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>כד סיון</t>
+  </si>
+  <si>
+    <t>23/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5241,17 +6318,17 @@
     </r>
   </si>
   <si>
-    <t>ח אייר</t>
-  </si>
-  <si>
-    <t>9/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>כה סיון</t>
+  </si>
+  <si>
+    <t>24/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5267,17 +6344,26 @@
     </r>
   </si>
   <si>
-    <t>ט אייר</t>
-  </si>
-  <si>
-    <t>10/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>כו סיון</t>
+  </si>
+  <si>
+    <t>25/6</t>
+  </si>
+  <si>
+    <t>קורח</t>
+  </si>
+  <si>
+    <t>כז סיון</t>
+  </si>
+  <si>
+    <t>26/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5293,17 +6379,17 @@
     </r>
   </si>
   <si>
-    <t>י אייר</t>
-  </si>
-  <si>
-    <t>11/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>כח סיון</t>
+  </si>
+  <si>
+    <t>27/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5319,17 +6405,17 @@
     </r>
   </si>
   <si>
-    <t>יא אייר</t>
-  </si>
-  <si>
-    <t>12/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>כט סיון</t>
+  </si>
+  <si>
+    <t>28/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5345,17 +6431,17 @@
     </r>
   </si>
   <si>
-    <t>יב אייר</t>
-  </si>
-  <si>
-    <t>13/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>ל סיון</t>
+  </si>
+  <si>
+    <t>29/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5371,382 +6457,17 @@
     </r>
   </si>
   <si>
-    <t>יג אייר</t>
-  </si>
-  <si>
-    <t>14/5</t>
-  </si>
-  <si>
-    <t>בהר</t>
-  </si>
-  <si>
-    <t>יד אייר</t>
-  </si>
-  <si>
-    <t>15/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ט</t>
-    </r>
-  </si>
-  <si>
-    <t>טו אייר</t>
-  </si>
-  <si>
-    <t>16/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">י</t>
-    </r>
-  </si>
-  <si>
-    <t>טז אייר</t>
-  </si>
-  <si>
-    <t>17/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יא</t>
-    </r>
-  </si>
-  <si>
-    <t>יז אייר</t>
-  </si>
-  <si>
-    <t>18/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יב</t>
-    </r>
-  </si>
-  <si>
-    <t>יח אייר</t>
-  </si>
-  <si>
-    <t>19/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יג</t>
-    </r>
-  </si>
-  <si>
-    <t>יט אייר</t>
-  </si>
-  <si>
-    <t>20/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יד</t>
-    </r>
-  </si>
-  <si>
-    <t>כ אייר</t>
-  </si>
-  <si>
-    <t>21/5</t>
-  </si>
-  <si>
-    <t>בחקתי</t>
-  </si>
-  <si>
-    <t>כא אייר</t>
-  </si>
-  <si>
-    <t>22/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">טו</t>
-    </r>
-  </si>
-  <si>
-    <t>כב אייר</t>
-  </si>
-  <si>
-    <t>23/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">טז</t>
-    </r>
-  </si>
-  <si>
-    <t>כג אייר</t>
-  </si>
-  <si>
-    <t>24/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יז</t>
-    </r>
-  </si>
-  <si>
-    <t>כד אייר</t>
-  </si>
-  <si>
-    <t>25/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יח</t>
-    </r>
-  </si>
-  <si>
-    <t>כה אייר</t>
-  </si>
-  <si>
-    <t>26/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יט</t>
-    </r>
-  </si>
-  <si>
-    <t>כו אייר</t>
-  </si>
-  <si>
-    <t>27/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כ</t>
-    </r>
-  </si>
-  <si>
-    <t>כז אייר</t>
-  </si>
-  <si>
-    <t>28/5</t>
-  </si>
-  <si>
-    <t>במדבר</t>
-  </si>
-  <si>
-    <t>כח אייר</t>
-  </si>
-  <si>
-    <t>29/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">כא</t>
-    </r>
-  </si>
-  <si>
-    <t>כט אייר</t>
-  </si>
-  <si>
-    <t>30/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>א תמוז</t>
+  </si>
+  <si>
+    <t>30/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -5762,17 +6483,17 @@
     </r>
   </si>
   <si>
-    <t>א סיון</t>
-  </si>
-  <si>
-    <t>31/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>ב תמוז</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -5788,17 +6509,26 @@
     </r>
   </si>
   <si>
-    <t>ב סיון</t>
-  </si>
-  <si>
-    <t>1/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>ג תמוז</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>חקת</t>
+  </si>
+  <si>
+    <t>ד תמוז</t>
+  </si>
+  <si>
+    <t>3/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -5814,17 +6544,17 @@
     </r>
   </si>
   <si>
-    <t>ג סיון</t>
-  </si>
-  <si>
-    <t>2/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>ה תמוז</t>
+  </si>
+  <si>
+    <t>4/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -5840,17 +6570,17 @@
     </r>
   </si>
   <si>
-    <t>ד סיון</t>
-  </si>
-  <si>
-    <t>3/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>ו תמוז</t>
+  </si>
+  <si>
+    <t>5/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -5866,35 +6596,17 @@
     </r>
   </si>
   <si>
-    <t>ה סיון</t>
-  </si>
-  <si>
-    <t>4/6</t>
-  </si>
-  <si>
-    <t>נשא</t>
-  </si>
-  <si>
-    <t>ו סיון</t>
-  </si>
-  <si>
-    <t>5/6</t>
-  </si>
-  <si>
-    <t>שבועות</t>
-  </si>
-  <si>
-    <t>ז סיון</t>
-  </si>
-  <si>
-    <t>6/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>ז תמוז</t>
+  </si>
+  <si>
+    <t>6/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -5910,17 +6622,17 @@
     </r>
   </si>
   <si>
-    <t>ח סיון</t>
-  </si>
-  <si>
-    <t>7/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>ח תמוז</t>
+  </si>
+  <si>
+    <t>7/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -5936,17 +6648,17 @@
     </r>
   </si>
   <si>
-    <t>ט סיון</t>
-  </si>
-  <si>
-    <t>8/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>ט תמוז</t>
+  </si>
+  <si>
+    <t>8/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -5962,321 +6674,26 @@
     </r>
   </si>
   <si>
-    <t>י סיון</t>
-  </si>
-  <si>
-    <t>9/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ט</t>
-    </r>
-  </si>
-  <si>
-    <t>יא סיון</t>
-  </si>
-  <si>
-    <t>10/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">י</t>
-    </r>
-  </si>
-  <si>
-    <t>יב סיון</t>
-  </si>
-  <si>
-    <t>11/6</t>
-  </si>
-  <si>
-    <t>בהעלתך</t>
-  </si>
-  <si>
-    <t>יג סיון</t>
-  </si>
-  <si>
-    <t>12/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יא</t>
-    </r>
-  </si>
-  <si>
-    <t>יד סיון</t>
-  </si>
-  <si>
-    <t>13/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יב</t>
-    </r>
-  </si>
-  <si>
-    <t>טו סיון</t>
-  </si>
-  <si>
-    <t>14/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יג</t>
-    </r>
-  </si>
-  <si>
-    <t>טז סיון</t>
-  </si>
-  <si>
-    <t>15/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יד</t>
-    </r>
-  </si>
-  <si>
-    <t>יז סיון</t>
-  </si>
-  <si>
-    <t>16/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">טו</t>
-    </r>
-  </si>
-  <si>
-    <t>יח סיון</t>
-  </si>
-  <si>
-    <t>17/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">טז</t>
-    </r>
-  </si>
-  <si>
-    <t>יט סיון</t>
-  </si>
-  <si>
-    <t>18/6</t>
-  </si>
-  <si>
-    <t>שלח לך</t>
-  </si>
-  <si>
-    <t>כ סיון</t>
-  </si>
-  <si>
-    <t>19/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יז</t>
-    </r>
-  </si>
-  <si>
-    <t>כא סיון</t>
-  </si>
-  <si>
-    <t>20/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יח</t>
-    </r>
-  </si>
-  <si>
-    <t>כב סיון</t>
-  </si>
-  <si>
-    <t>21/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">יט</t>
-    </r>
-  </si>
-  <si>
-    <t>כג סיון</t>
-  </si>
-  <si>
-    <t>22/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
+    <t>י תמוז</t>
+  </si>
+  <si>
+    <t>9/7</t>
+  </si>
+  <si>
+    <t>בלק</t>
+  </si>
+  <si>
+    <t>יא תמוז</t>
+  </si>
+  <si>
+    <t>10/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">שיר השירים</t>
     </r>
     <r>
       <rPr>
@@ -6292,423 +6709,6 @@
     </r>
   </si>
   <si>
-    <t>כד סיון</t>
-  </si>
-  <si>
-    <t>23/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ב</t>
-    </r>
-  </si>
-  <si>
-    <t>כה סיון</t>
-  </si>
-  <si>
-    <t>24/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ג</t>
-    </r>
-  </si>
-  <si>
-    <t>כו סיון</t>
-  </si>
-  <si>
-    <t>25/6</t>
-  </si>
-  <si>
-    <t>קורח</t>
-  </si>
-  <si>
-    <t>כז סיון</t>
-  </si>
-  <si>
-    <t>26/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ד</t>
-    </r>
-  </si>
-  <si>
-    <t>כח סיון</t>
-  </si>
-  <si>
-    <t>27/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ה</t>
-    </r>
-  </si>
-  <si>
-    <t>כט סיון</t>
-  </si>
-  <si>
-    <t>28/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ו</t>
-    </r>
-  </si>
-  <si>
-    <t>ל סיון</t>
-  </si>
-  <si>
-    <t>29/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ז</t>
-    </r>
-  </si>
-  <si>
-    <t>א תמוז</t>
-  </si>
-  <si>
-    <t>30/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ח</t>
-    </r>
-  </si>
-  <si>
-    <t>ב תמוז</t>
-  </si>
-  <si>
-    <t>1/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">א</t>
-    </r>
-  </si>
-  <si>
-    <t>ג תמוז</t>
-  </si>
-  <si>
-    <t>2/7</t>
-  </si>
-  <si>
-    <t>חקת</t>
-  </si>
-  <si>
-    <t>ד תמוז</t>
-  </si>
-  <si>
-    <t>3/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ב</t>
-    </r>
-  </si>
-  <si>
-    <t>ה תמוז</t>
-  </si>
-  <si>
-    <t>4/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ג</t>
-    </r>
-  </si>
-  <si>
-    <t>ו תמוז</t>
-  </si>
-  <si>
-    <t>5/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ד</t>
-    </r>
-  </si>
-  <si>
-    <t>ז תמוז</t>
-  </si>
-  <si>
-    <t>6/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ה</t>
-    </r>
-  </si>
-  <si>
-    <t>ח תמוז</t>
-  </si>
-  <si>
-    <t>7/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ו</t>
-    </r>
-  </si>
-  <si>
-    <t>ט תמוז</t>
-  </si>
-  <si>
-    <t>8/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ז</t>
-    </r>
-  </si>
-  <si>
-    <t>י תמוז</t>
-  </si>
-  <si>
-    <t>9/7</t>
-  </si>
-  <si>
-    <t>בלק</t>
-  </si>
-  <si>
-    <t>יא תמוז</t>
-  </si>
-  <si>
-    <t>10/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">ח</t>
-    </r>
-  </si>
-  <si>
     <t>יב תמוז</t>
   </si>
   <si>
@@ -6719,19 +6719,19 @@
       <rPr>
         <sz val="12"/>
       </rPr>
-      <t xml:space="preserve">שיר השירים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">א</t>
+      <t xml:space="preserve">רות</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">א1</t>
     </r>
   </si>
   <si>
@@ -6757,7 +6757,7 @@
       <rPr>
         <sz val="12"/>
       </rPr>
-      <t xml:space="preserve">א</t>
+      <t xml:space="preserve">א2</t>
     </r>
   </si>
   <si>
@@ -8401,6 +8401,12 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="David"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -8409,12 +8415,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="David"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="David"/>
       <family val="1"/>
@@ -8497,6 +8497,8 @@
   <cellXfs count="16">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1"/>
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1"/>
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="1"/>
     <xf applyFont="1" fontId="2"/>
     <xf applyFont="1" fontId="3"/>
     <xf applyFont="1" fontId="0" applyAlignment="1">
@@ -8505,8 +8507,6 @@
     <xf applyFont="1" fontId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1"/>
-    <xf applyFont="1" fontId="3" applyBorder="1" borderId="1"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="2"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="3"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="4"/>
@@ -8514,9 +8514,9 @@
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="3" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyFont="1" fontId="1" applyBorder="1" borderId="4"/>
-    <xf applyFont="1" fontId="1" applyBorder="1" borderId="5"/>
-    <xf applyFont="1" fontId="1" applyBorder="1" borderId="5" applyAlignment="1">
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="4"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="5"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8532,34 +8532,34 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="7"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="8" t="s">
